--- a/Histórico/Acumulado Madrid.xlsx
+++ b/Histórico/Acumulado Madrid.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,485 +493,485 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45148.83333333334</v>
+        <v>45627.75</v>
       </c>
       <c r="B2" t="n">
-        <v>34.8</v>
+        <v>13.9</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Noroeste</t>
+          <t>Sur</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Sudoeste</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>943.4</v>
+        <v>946.1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45148.79166666666</v>
+        <v>45627.70833333334</v>
       </c>
       <c r="B3" t="n">
-        <v>36.5</v>
+        <v>15.1</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Noroeste</t>
+          <t>Calma</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Noroeste</t>
+          <t>Sudoeste</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>943.2</v>
+        <v>946.4</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45148.75</v>
+        <v>45627.66666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>36.6</v>
+        <v>15.8</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Noroeste</t>
+          <t>Sudoeste</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Noroeste</t>
+          <t>Sudoeste</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>943.1</v>
+        <v>946.3</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8</v>
+        <v>-1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45148.70833333334</v>
+        <v>45627.625</v>
       </c>
       <c r="B5" t="n">
-        <v>37.8</v>
+        <v>15.1</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Calma</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Sudoeste</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>26</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sudoeste</t>
-        </is>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>943.3</v>
+        <v>946.5</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45148.66666666666</v>
+        <v>45627.58333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>37.4</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Calma</t>
+          <t>Sudeste</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>943.4</v>
+        <v>947.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45148.625</v>
+        <v>45627.54166666666</v>
       </c>
       <c r="B7" t="n">
-        <v>36.5</v>
+        <v>13.1</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sudoeste</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>943.9</v>
+        <v>948.1</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45148.58333333334</v>
+        <v>45627.5</v>
       </c>
       <c r="B8" t="n">
-        <v>36.1</v>
+        <v>11.9</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>944.2</v>
+        <v>947.8</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="J8" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45148.54166666666</v>
+        <v>45627.45833333334</v>
       </c>
       <c r="B9" t="n">
-        <v>34.1</v>
+        <v>10.4</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>944.2</v>
+        <v>948.7</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J9" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45148.5</v>
+        <v>45627.41666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Este</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Este</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>944.7</v>
+        <v>948.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45148.45833333334</v>
+        <v>45627.375</v>
       </c>
       <c r="B11" t="n">
-        <v>28.4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>944.4</v>
+        <v>948.3</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J11" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45148.41666666666</v>
+        <v>45627.33333333334</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Este</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Este</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>944.1</v>
+        <v>947.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J12" t="n">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45148.375</v>
+        <v>45627.29166666666</v>
       </c>
       <c r="B13" t="n">
-        <v>23.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>944</v>
+        <v>947.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="J13" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45148.33333333334</v>
+        <v>45627.25</v>
       </c>
       <c r="B14" t="n">
-        <v>23.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>943.5</v>
+        <v>947.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>-0.2</v>
       </c>
       <c r="J14" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45148.29166666666</v>
+        <v>45627.20833333334</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -979,35 +979,35 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>943.1</v>
+        <v>947.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="J15" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45148.25</v>
+        <v>45627.16666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1015,291 +1015,291 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>942.8</v>
+        <v>947.8</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1</v>
+        <v>-0.7</v>
       </c>
       <c r="J16" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45148.20833333334</v>
+        <v>45627.125</v>
       </c>
       <c r="B17" t="n">
-        <v>25.9</v>
+        <v>9.5</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>942.5</v>
+        <v>947.9</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="J17" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45148.16666666666</v>
+        <v>45627.08333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>27.3</v>
+        <v>10.1</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>942.5</v>
+        <v>947.9</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45148.125</v>
+        <v>45627.04166666666</v>
       </c>
       <c r="B19" t="n">
-        <v>28.8</v>
+        <v>10.1</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>942.9</v>
+        <v>948.5</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="J19" t="n">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45148.08333333334</v>
+        <v>45627</v>
       </c>
       <c r="B20" t="n">
-        <v>29.4</v>
+        <v>10.2</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Este</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>942.9</v>
+        <v>948.6</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="J20" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45148.04166666666</v>
+        <v>45626.95833333334</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>10.8</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>942.9</v>
+        <v>948.9</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45148</v>
+        <v>45626.91666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>30.9</v>
+        <v>10.9</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Calma</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>942.8</v>
+        <v>949</v>
       </c>
       <c r="I22" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="J22" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45147.95833333334</v>
+        <v>45626.875</v>
       </c>
       <c r="B23" t="n">
-        <v>31.8</v>
+        <v>11.4</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Calma</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sudoeste</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>942.4</v>
+        <v>948.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="J23" t="n">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45147.91666666666</v>
+        <v>45626.83333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>32.5</v>
+        <v>12.2</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Calma</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1310,32 +1310,32 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>942</v>
+        <v>948.9</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45147.875</v>
+        <v>45626.79166666666</v>
       </c>
       <c r="B25" t="n">
-        <v>34.5</v>
+        <v>12.7</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sudoeste</t>
+          <t>Oeste</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1346,46 +1346,908 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>941.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.1</v>
-      </c>
+        <v>948.6</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45148.83333333334</v>
+      </c>
+      <c r="B26" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Noroeste</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>943.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45148.79166666666</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Noroeste</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>23</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Noroeste</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>943.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45148.75</v>
+      </c>
+      <c r="B28" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Noroeste</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Noroeste</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>943.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45148.70833333334</v>
+      </c>
+      <c r="B29" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>26</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>943.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45148.66666666666</v>
+      </c>
+      <c r="B30" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Calma</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>943.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45148.625</v>
+      </c>
+      <c r="B31" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>21</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>943.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45148.58333333334</v>
+      </c>
+      <c r="B32" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>21</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>944.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45148.54166666666</v>
+      </c>
+      <c r="B33" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>22</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>944.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45148.5</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>944.7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45148.45833333334</v>
+      </c>
+      <c r="B35" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>944.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45148.41666666666</v>
+      </c>
+      <c r="B36" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>944.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45148.375</v>
+      </c>
+      <c r="B37" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>944</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45148.33333333334</v>
+      </c>
+      <c r="B38" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>943.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45148.29166666666</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>943.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45148.25</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>12</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>942.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45148.20833333334</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>11</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>942.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45148.16666666666</v>
+      </c>
+      <c r="B42" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>15</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>942.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45148.125</v>
+      </c>
+      <c r="B43" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>15</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>942.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45148.08333333334</v>
+      </c>
+      <c r="B44" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>17</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>942.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45148.04166666666</v>
+      </c>
+      <c r="B45" t="n">
+        <v>30</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>18</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>942.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B46" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>17</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>942.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45147.95833333334</v>
+      </c>
+      <c r="B47" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>17</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>942.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45147.91666666666</v>
+      </c>
+      <c r="B48" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>15</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>942</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45147.875</v>
+      </c>
+      <c r="B49" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sudoeste</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>941.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>45147.83333333334</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B50" t="n">
         <v>36</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C50" t="n">
         <v>2</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Oeste</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
         <v>29</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Oeste</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Oeste</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>941.1</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>23</v>
       </c>
     </row>
